--- a/src/lib/assets/data/fooddb.xlsx
+++ b/src/lib/assets/data/fooddb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungwoojin/Desktop/neuseum/pr/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjju/Desktop/nuseum-production/nuseum/src/lib/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E84A2-1F73-0B4A-8072-4AAC478C0E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C93F6-95D9-D149-ACFE-E44A970B6FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1320" windowWidth="27900" windowHeight="16680" xr2:uid="{C9B2B1D6-6CFF-EB43-9CED-D1403F065A2C}"/>
   </bookViews>
@@ -724,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,12 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,44 +1086,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B39AE4-7F68-E449-BE6E-1479F8D60E9C}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:11" ht="19" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1164,7 +1158,6 @@
       <c r="J2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
@@ -1197,13 +1190,12 @@
       <c r="J3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1230,13 +1222,12 @@
       <c r="J4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1263,13 +1254,12 @@
       <c r="J5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1296,13 +1286,12 @@
       <c r="J6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1329,7 +1318,6 @@
       <c r="J7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
@@ -1352,7 +1340,6 @@
       <c r="J8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
@@ -1375,7 +1362,6 @@
       <c r="J9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
@@ -1390,11 +1376,9 @@
       <c r="H10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="12"/>
       <c r="J10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
@@ -1409,11 +1393,9 @@
       <c r="H11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
@@ -1428,17 +1410,14 @@
       <c r="H12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="12"/>
       <c r="J12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="10"/>
@@ -1447,17 +1426,14 @@
       <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="12"/>
       <c r="J13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
@@ -1466,17 +1442,14 @@
       <c r="H14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="12"/>
       <c r="J14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
@@ -1485,17 +1458,14 @@
       <c r="H15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="12"/>
       <c r="J15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1504,13 +1474,11 @@
       <c r="H16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="12"/>
       <c r="J16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
@@ -1523,13 +1491,11 @@
       <c r="H17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="12"/>
       <c r="J17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1540,13 +1506,11 @@
       <c r="H18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="12"/>
       <c r="J18" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1557,13 +1521,11 @@
       <c r="H19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="12"/>
       <c r="J19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1574,13 +1536,11 @@
       <c r="H20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="12"/>
       <c r="J20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1591,296 +1551,104 @@
       <c r="H21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="12"/>
       <c r="J21" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="J22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="J23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="J24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="J25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="J26" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="J27" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="J28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="J29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="J30" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="J31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="J32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+    </row>
+    <row r="33" spans="10:10">
       <c r="J33" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+    </row>
+    <row r="34" spans="10:10">
       <c r="J34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+    </row>
+    <row r="35" spans="10:10">
       <c r="J35" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+    </row>
+    <row r="36" spans="10:10">
       <c r="J36" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+    </row>
+    <row r="37" spans="10:10">
       <c r="J37" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+    </row>
+    <row r="38" spans="10:10">
       <c r="J38" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+    </row>
+    <row r="39" spans="10:10">
       <c r="J39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+    </row>
+    <row r="40" spans="10:10">
       <c r="J40" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/lib/assets/data/fooddb.xlsx
+++ b/src/lib/assets/data/fooddb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjju/Desktop/nuseum-production/nuseum/src/lib/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C93F6-95D9-D149-ACFE-E44A970B6FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C7838-2303-E947-82F9-63E83EA58F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1320" windowWidth="27900" windowHeight="16680" xr2:uid="{C9B2B1D6-6CFF-EB43-9CED-D1403F065A2C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="food" sheetId="1" r:id="rId1"/>
     <sheet name="nutrients" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="145">
   <si>
     <t>채소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -595,13 +595,17 @@
   </si>
   <si>
     <t>트립토판(㎎)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,6 +663,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -724,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +780,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B39AE4-7F68-E449-BE6E-1479F8D60E9C}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1323,11 +1338,21 @@
       <c r="A8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G8" s="10" t="s">
         <v>57</v>
       </c>
@@ -1345,11 +1370,19 @@
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="G9" s="10" t="s">
         <v>60</v>
       </c>
@@ -1367,292 +1400,1010 @@
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>63</v>
       </c>
+      <c r="I10" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J10" s="11" t="s">
         <v>100</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="I11" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>101</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="I12" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J12" s="11" t="s">
         <v>102</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
+      <c r="I13" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>103</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H14" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="I14" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J14" s="11" t="s">
         <v>104</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="I15" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J15" s="11" t="s">
         <v>105</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="I16" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J16" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H17" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="I17" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J17" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="K17" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>78</v>
       </c>
+      <c r="I18" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J18" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="K18" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H19" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="I19" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J19" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="K19" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="I20" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J20" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="K20" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="H21" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="I21" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J21" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J22" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J23" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J24" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J25" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J26" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J27" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J28" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J29" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J30" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J31" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J32" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="10:10">
+      <c r="K32" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J33" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="34" spans="10:10">
+      <c r="K33" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J34" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="10:10">
+      <c r="K34" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J35" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="10:10">
+      <c r="K35" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J36" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="10:10">
+      <c r="K36" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J37" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="10:10">
+      <c r="K37" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J38" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="10:10">
+      <c r="K38" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J39" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" spans="10:10">
+      <c r="K39" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="J40" s="11" t="s">
         <v>126</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/src/lib/assets/data/fooddb.xlsx
+++ b/src/lib/assets/data/fooddb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjju/Desktop/nuseum-production/nuseum/src/lib/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1C7838-2303-E947-82F9-63E83EA58F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA73C5A-198C-9342-883B-72C42997D022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1320" windowWidth="27900" windowHeight="16680" xr2:uid="{C9B2B1D6-6CFF-EB43-9CED-D1403F065A2C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="144">
   <si>
     <t>채소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -536,10 +536,6 @@
   </si>
   <si>
     <t>임페리얼분유 XO Royal Class 1</t>
-  </si>
-  <si>
-    <t>간식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>목이버섯</t>
@@ -1102,7 +1098,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1138,9 +1134,7 @@
       <c r="J1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
@@ -1339,19 +1333,19 @@
         <v>56</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>57</v>
@@ -1371,17 +1365,17 @@
         <v>59</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>60</v>
@@ -1401,32 +1395,32 @@
         <v>62</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1434,32 +1428,32 @@
         <v>64</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>101</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1467,32 +1461,32 @@
         <v>66</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>102</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1500,32 +1494,32 @@
         <v>68</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>103</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1533,32 +1527,32 @@
         <v>70</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>104</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1566,32 +1560,32 @@
         <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1599,32 +1593,32 @@
         <v>74</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>106</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1632,772 +1626,772 @@
         <v>76</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>78</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>108</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>109</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>110</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>111</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>112</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>113</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>114</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>115</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>116</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>117</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>118</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>119</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>120</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>121</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>122</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>123</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>124</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>121</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>122</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>123</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>124</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>125</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2419,31 +2413,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19" thickBot="1">
       <c r="A1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2492,7 +2486,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>23</v>
@@ -2570,7 +2564,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>16</v>
@@ -2654,7 +2648,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>57</v>
@@ -2702,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2717,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>42</v>
@@ -2735,7 +2729,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
@@ -2782,7 +2776,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2799,7 +2793,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2816,7 +2810,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2870,7 +2864,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6">

--- a/src/lib/assets/data/fooddb.xlsx
+++ b/src/lib/assets/data/fooddb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkjju/Desktop/nuseum-production/nuseum/src/lib/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA73C5A-198C-9342-883B-72C42997D022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E2AAA-C019-5D45-9B5B-6EE872B5B260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1320" windowWidth="27900" windowHeight="16680" xr2:uid="{C9B2B1D6-6CFF-EB43-9CED-D1403F065A2C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{C9B2B1D6-6CFF-EB43-9CED-D1403F065A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="144">
   <si>
     <t>채소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1370,7 +1370,9 @@
       <c r="C9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E9" s="11" t="s">
         <v>143</v>
       </c>
@@ -1400,7 +1402,9 @@
       <c r="C10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E10" s="11" t="s">
         <v>143</v>
       </c>
@@ -1419,9 +1423,7 @@
       <c r="J10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
@@ -1433,7 +1435,9 @@
       <c r="C11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>143</v>
       </c>
@@ -1452,9 +1456,7 @@
       <c r="J11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
@@ -1466,7 +1468,9 @@
       <c r="C12" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>143</v>
       </c>
@@ -1485,9 +1489,7 @@
       <c r="J12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="10" t="s">
@@ -1499,7 +1501,9 @@
       <c r="C13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>143</v>
       </c>
@@ -1518,9 +1522,7 @@
       <c r="J13" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10" t="s">
@@ -1532,7 +1534,9 @@
       <c r="C14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E14" s="11" t="s">
         <v>143</v>
       </c>
@@ -1551,9 +1555,7 @@
       <c r="J14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
@@ -1565,7 +1567,9 @@
       <c r="C15" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>143</v>
       </c>
@@ -1584,9 +1588,7 @@
       <c r="J15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
@@ -1598,7 +1600,9 @@
       <c r="C16" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>143</v>
       </c>
@@ -1617,9 +1621,7 @@
       <c r="J16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="11" t="s">
@@ -1631,7 +1633,9 @@
       <c r="C17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E17" s="11" t="s">
         <v>143</v>
       </c>
@@ -1650,9 +1654,7 @@
       <c r="J17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
@@ -1664,7 +1666,9 @@
       <c r="C18" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E18" s="11" t="s">
         <v>143</v>
       </c>
@@ -1683,9 +1687,7 @@
       <c r="J18" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11" t="s">
@@ -1697,7 +1699,9 @@
       <c r="C19" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>143</v>
       </c>
@@ -1716,9 +1720,7 @@
       <c r="J19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
@@ -1730,7 +1732,9 @@
       <c r="C20" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E20" s="11" t="s">
         <v>143</v>
       </c>
@@ -1749,9 +1753,7 @@
       <c r="J20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
@@ -1763,7 +1765,9 @@
       <c r="C21" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E21" s="11" t="s">
         <v>143</v>
       </c>
@@ -1782,9 +1786,7 @@
       <c r="J21" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="11" t="s">
@@ -1796,6 +1798,9 @@
       <c r="C22" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D22" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>143</v>
       </c>
@@ -1814,9 +1819,7 @@
       <c r="J22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="11" t="s">
@@ -1828,6 +1831,9 @@
       <c r="C23" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D23" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E23" s="11" t="s">
         <v>143</v>
       </c>
@@ -1846,9 +1852,7 @@
       <c r="J23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
@@ -1860,6 +1864,9 @@
       <c r="C24" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D24" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E24" s="11" t="s">
         <v>143</v>
       </c>
@@ -1878,9 +1885,7 @@
       <c r="J24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="11" t="s">
@@ -1892,6 +1897,9 @@
       <c r="C25" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D25" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E25" s="11" t="s">
         <v>143</v>
       </c>
@@ -1910,9 +1918,7 @@
       <c r="J25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
@@ -1924,6 +1930,9 @@
       <c r="C26" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D26" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E26" s="11" t="s">
         <v>143</v>
       </c>
@@ -1942,9 +1951,7 @@
       <c r="J26" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
@@ -1956,6 +1963,9 @@
       <c r="C27" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D27" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E27" s="11" t="s">
         <v>143</v>
       </c>
@@ -1974,9 +1984,7 @@
       <c r="J27" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
@@ -1988,6 +1996,9 @@
       <c r="C28" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D28" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E28" s="11" t="s">
         <v>143</v>
       </c>
@@ -2006,9 +2017,7 @@
       <c r="J28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="11" t="s">
@@ -2020,6 +2029,9 @@
       <c r="C29" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D29" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E29" s="11" t="s">
         <v>143</v>
       </c>
@@ -2038,9 +2050,7 @@
       <c r="J29" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="11" t="s">
@@ -2052,6 +2062,9 @@
       <c r="C30" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D30" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E30" s="11" t="s">
         <v>143</v>
       </c>
@@ -2070,9 +2083,7 @@
       <c r="J30" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="11" t="s">
@@ -2084,6 +2095,9 @@
       <c r="C31" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D31" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E31" s="11" t="s">
         <v>143</v>
       </c>
@@ -2102,9 +2116,7 @@
       <c r="J31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
@@ -2116,6 +2128,9 @@
       <c r="C32" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D32" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E32" s="11" t="s">
         <v>143</v>
       </c>
@@ -2134,9 +2149,7 @@
       <c r="J32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
@@ -2148,6 +2161,9 @@
       <c r="C33" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D33" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E33" s="11" t="s">
         <v>143</v>
       </c>
@@ -2166,9 +2182,7 @@
       <c r="J33" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="11" t="s">
@@ -2180,6 +2194,9 @@
       <c r="C34" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D34" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E34" s="11" t="s">
         <v>143</v>
       </c>
@@ -2198,9 +2215,7 @@
       <c r="J34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
@@ -2212,6 +2227,9 @@
       <c r="C35" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D35" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E35" s="11" t="s">
         <v>143</v>
       </c>
@@ -2230,9 +2248,7 @@
       <c r="J35" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
@@ -2244,6 +2260,9 @@
       <c r="C36" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D36" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E36" s="11" t="s">
         <v>143</v>
       </c>
@@ -2262,9 +2281,7 @@
       <c r="J36" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
@@ -2276,6 +2293,9 @@
       <c r="C37" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D37" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E37" s="11" t="s">
         <v>143</v>
       </c>
@@ -2294,9 +2314,7 @@
       <c r="J37" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
@@ -2308,6 +2326,9 @@
       <c r="C38" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D38" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E38" s="11" t="s">
         <v>143</v>
       </c>
@@ -2326,9 +2347,7 @@
       <c r="J38" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
@@ -2340,6 +2359,9 @@
       <c r="C39" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D39" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E39" s="11" t="s">
         <v>143</v>
       </c>
@@ -2358,9 +2380,7 @@
       <c r="J39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="11" t="s">
@@ -2372,6 +2392,9 @@
       <c r="C40" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="D40" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="E40" s="11" t="s">
         <v>143</v>
       </c>
@@ -2390,9 +2413,7 @@
       <c r="J40" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="K40" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
